--- a/dist/agreement.xlsx
+++ b/dist/agreement.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Projects\Nodejs\base — копия\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Projects\Test\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F177BEE-274C-421A-99F3-12D2CCFA6814}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2E32A7-2EA7-4458-B01D-4F05944A7AB8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>№п.п.</t>
   </si>
@@ -37,41 +37,17 @@
     <t>Председатель профсоюзного комитета «Филиала Юго-Западный»:  _______________  /________________/</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                 Особые  условия: Мнение профсоюзного комитета. Профсоюзный комитет не возражает применять  сверхурочную работу с согласия работника, при условии предоставления выходных дней не менее числа полных недель месяца</t>
-  </si>
-  <si>
-    <r>
-      <t>Администрация Филиала "Юго-Западный", в лице директора  Р.А. Езохова, предлагает нижеперечисленным водителям 13-ой автоколонны выполнять сверхурочную работу за пределами установленной продолжительности рабочего времени (баланса), а так же работу в выходные, праздничные дни в август</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  месяце  2019  года. </t>
-    </r>
+    <t>Особые  условия: Мнение профсоюзного комитета. Профсоюзный комитет не возражает применять  сверхурочную работу с согласия работника, при условии предоставления выходных дней не менее числа полных недель месяца</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -540,151 +516,151 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1004,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1033,9 +1009,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
-        <v>6</v>
-      </c>
+      <c r="A1" s="55"/>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="55"/>
